--- a/municipal/ვაჭრობა/ბაზრების და ბაზრობების რაოდენობა ტიპების მიხედვით/სამცხე-ჯავახეთი/ადიგენის მუნიციპალიტეტი.xlsx
+++ b/municipal/ვაჭრობა/ბაზრების და ბაზრობების რაოდენობა ტიპების მიხედვით/სამცხე-ჯავახეთი/ადიგენის მუნიციპალიტეტი.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asalukvadze\Desktop\ქართულები\ბაზრების და ბაზრობების რაოდენობა ტიპების მიხედვით\სამცხე-ჯავახეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\მომსახურება\ბაზრები მუნიციპალიტეტები\ბ&amp;ბ რაოდენობა ტიპების მიხედვით\ბაზრების და ბაზრობების რაოდენობა ტიპების მიხედვით\სამცხე-ჯავახეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F457195C-720C-47DF-BCF9-4F034A514692}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3356659-8085-483D-BE77-316FFECFA03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="60" windowWidth="13500" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="17700" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ადიგენის მუნიციპალიტეტი" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="8">
   <si>
     <t>ბაზრების და ბაზრობების რაოდენობა ტიპების მიხედვით ადიგენის მუნიციპალიტეტში</t>
   </si>
@@ -48,7 +48,26 @@
     <t>ნახევრად გადახურული</t>
   </si>
   <si>
-    <t>... - მონაცემი არ არის ან კონფიდენციალურია</t>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>შენიშვნა:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> „ ...“ - მონაცემი არ არის ან კონფიდენციალურია.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -58,7 +77,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0_);\(0\);\-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +125,19 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Sylfaen"/>
@@ -126,7 +158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -154,13 +186,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -174,26 +224,30 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,15 +529,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" style="15" customWidth="1"/>
-    <col min="2" max="10" width="11.28515625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="22.7109375" style="12" customWidth="1"/>
+    <col min="2" max="22" width="8.7109375" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -534,8 +588,14 @@
       <c r="J3" s="5">
         <v>2021</v>
       </c>
+      <c r="K3" s="5">
+        <v>2022</v>
+      </c>
+      <c r="L3" s="5">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -566,11 +626,15 @@
       <c r="J4" s="8">
         <v>1</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="K4" s="8">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:13" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
@@ -601,8 +665,14 @@
       <c r="J5" s="9">
         <v>1</v>
       </c>
+      <c r="K5" s="9">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
@@ -633,66 +703,65 @@
       <c r="J6" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="K6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="9" t="s">
+      <c r="B7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:C8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>